--- a/biology/Mycologie/Tomentella/Tomentella.xlsx
+++ b/biology/Mycologie/Tomentella/Tomentella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tomentella est un genre de champignons de l'ordre des Thelephorales. Son espèce type est Tomentella ferruginea. Décrit par le mycologue français Narcisse Patouillard en 1887, ce genre comprend des espèces ectomycorhiziennes corticoles, muscicoles ou terrestres présentes sur l'ensemble de la planète avec plus d'une centaine d'espèces décrites[2],[3].
-Les espèces du genre Tomentella sont caractérisées par un réceptacle résupiné, lisse ou papilleux, floconneux, à trame colorée, molle, peu serrée. Leur hyménium est ordinairement disjoint, formé de basides en massues, disposées en touffes avec absence de cystides et des spores colorées, jaunes, fauves, brunes ou grisâtres, échinulées ou anguleuses. Les conidies sont semblables aux spores, naissant sur les côtés des branches terminales des hyphes non basidifères[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tomentella est un genre de champignons de l'ordre des Thelephorales. Son espèce type est Tomentella ferruginea. Décrit par le mycologue français Narcisse Patouillard en 1887, ce genre comprend des espèces ectomycorhiziennes corticoles, muscicoles ou terrestres présentes sur l'ensemble de la planète avec plus d'une centaine d'espèces décrites,.
+Les espèces du genre Tomentella sont caractérisées par un réceptacle résupiné, lisse ou papilleux, floconneux, à trame colorée, molle, peu serrée. Leur hyménium est ordinairement disjoint, formé de basides en massues, disposées en touffes avec absence de cystides et des spores colorées, jaunes, fauves, brunes ou grisâtres, échinulées ou anguleuses. Les conidies sont semblables aux spores, naissant sur les côtés des branches terminales des hyphes non basidifères.
 			Tomentella punicea
 			Spores d'une espèce de Tomentella indéterminée
 </t>
@@ -514,9 +526,11 @@
           <t>Espèces présentes sur le territoire français</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon l'INPN[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon l'INPN :
 Tomentella albomarginata (Bourdot &amp; Galzin) M.P. Christiansen ex M.J. Larsen
 Tomentella alutaceoumbrina (Bres.) Litsch.
 Tomentella asperula (P.Karst.) Höhn. &amp; Litsch.
